--- a/sustentopreciosminsa202112.xlsx
+++ b/sustentopreciosminsa202112.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Preciosminsa" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="INEI" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
   <si>
     <t xml:space="preserve">artdes</t>
   </si>
@@ -838,6 +839,15 @@
   <si>
     <t xml:space="preserve">VESOLN075</t>
   </si>
+  <si>
+    <t xml:space="preserve">cantidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">precio</t>
+  </si>
 </sst>
 </file>
 
@@ -36988,4 +36998,172 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="n">
+        <v>463</v>
+      </c>
+      <c r="C2" t="n">
+        <v>16029.89</v>
+      </c>
+      <c r="D2" t="n">
+        <v>34.6217926565875</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" t="n">
+        <v>800</v>
+      </c>
+      <c r="C3" t="n">
+        <v>15363.35</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.2041875</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" t="n">
+        <v>455</v>
+      </c>
+      <c r="C4" t="n">
+        <v>17274.251</v>
+      </c>
+      <c r="D4" t="n">
+        <v>37.9653868131868</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2515</v>
+      </c>
+      <c r="C5" t="n">
+        <v>21620.07</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.59644930417495</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" t="n">
+        <v>823</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5770.3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.01130012150668</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1720</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10903.83</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.33943604651163</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1589</v>
+      </c>
+      <c r="C8" t="n">
+        <v>14348.29</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.0297608558842</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B9" t="n">
+        <v>409</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11017.64</v>
+      </c>
+      <c r="D9" t="n">
+        <v>26.9379951100244</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" t="n">
+        <v>235</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7828.506</v>
+      </c>
+      <c r="D10" t="n">
+        <v>33.3127914893617</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B11" t="n">
+        <v>874</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8077.018</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9.24143935926774</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>